--- a/biology/Botanique/Ciboulette_commune/Ciboulette_commune.xlsx
+++ b/biology/Botanique/Ciboulette_commune/Ciboulette_commune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium schoenoprasum · Civette
 La Ciboulette commune, Ciboulette ou Civette (Allium schoenoprasum L.), est une plante aromatique de la famille des Amaryllidacées (anciennement Liliacées ou Alliacées), cultivée pour ses feuilles souvent utilisées comme condiment.
@@ -514,13 +526,15 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La multiplication est le plus souvent faite par division des touffes, au printemps ou à l'automne. En culture commerciale, on la multiplie plutôt par semis, en lignes espacées de 20 cm.
 On la récolte trois à cinq mois après la plantation. Elle est commercialisée, en frais sous forme de botillons, ou après une préparation de type industriel : surgélation, lyophilisation ou déshydratation.
 Elle est vivace, et peut être facilement plantée en pot, placée sur le rebord d'une fenêtre.
 Il est préférable de la couper fréquemment pour stimuler la pousse des feuilles, et de nettoyer fréquemment le plant de ses feuilles mortes.
-Sa zone de rusticité se situe entre 4 et 8[1].
+Sa zone de rusticité se situe entre 4 et 8.
 </t>
         </is>
       </c>
@@ -551,12 +565,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En gastronomie
-Les feuilles fraîches sont utilisées, crues, ciselées, pour aromatiser les crudités, les salades, et diverses préparations culinaires comme les autres fines herbes. Cuites, elles entrent aussi dans certaines recettes, sauces, omelettes... La Ciboulette commune est un des ingrédients de la cervelle de canut. La Ciboulette séchée ou lyophilisée n'est pas à conseiller, car elle perd une partie de son goût[2]. Surgelée, elle conserve ses propriétés.
+          <t>En gastronomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles fraîches sont utilisées, crues, ciselées, pour aromatiser les crudités, les salades, et diverses préparations culinaires comme les autres fines herbes. Cuites, elles entrent aussi dans certaines recettes, sauces, omelettes... La Ciboulette commune est un des ingrédients de la cervelle de canut. La Ciboulette séchée ou lyophilisée n'est pas à conseiller, car elle perd une partie de son goût. Surgelée, elle conserve ses propriétés.
 Les fleurs peuvent être avantageusement utilisées, pour la décoration de salades ou même de plats en sauce ; elles peuvent aussi être conservées au vinaigre, comme les cornichons, mais elles perdent alors leur couleur.
-Son goût dépend de sa variété, et peut évoquer des notes de fraîcheur, anisées, épicées ou poivrées. Son odeur est proche de celle des oignons et des poireaux[3].
-En jardinage
-Tout comme d'autres espèces de la famille des Amaryllidaceae, telles que l'Ail cultivé, l'Échalote ou l'Ognon, la Ciboulette commune peut être utilisée en tant que plante répulsive. Sa présence pourrait permettre à certaines plantes voisines d'être moins touchées par quelques insectes comme les pucerons et la mouche de la carotte[4].
+Son goût dépend de sa variété, et peut évoquer des notes de fraîcheur, anisées, épicées ou poivrées. Son odeur est proche de celle des oignons et des poireaux.
 </t>
         </is>
       </c>
@@ -582,21 +599,60 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En jardinage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme d'autres espèces de la famille des Amaryllidaceae, telles que l'Ail cultivé, l'Échalote ou l'Ognon, la Ciboulette commune peut être utilisée en tant que plante répulsive. Sa présence pourrait permettre à certaines plantes voisines d'être moins touchées par quelques insectes comme les pucerons et la mouche de la carotte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ciboulette_commune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ciboulette_commune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 juin 2012)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 juin 2012) :
 sous-espèce Allium schoenoprasum subsp. gredense
 sous-espèce Allium schoenoprasum subsp. latiorifolium
 sous-espèce Allium schoenoprasum subsp. schoenoprasum
-Selon World Checklist of Selected Plant Families (WCSP)  (4 juin 2012)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (4 juin 2012) :
 Allium schoenoprasum L. (1753)
 sous-espèce Allium schoenoprasum subsp. gredense (Rivas Goday) Rivas Mart., Fern.Gonz.&amp; Sánchez Mata (1986)
 sous-espèce Allium schoenoprasum subsp. latiorifolium (Pau) Rivas Mart., Fern.Gonz.&amp; Sánchez Mata (1986)
 sous-espèce Allium schoenoprasum subsp. schoenoprasum
-Selon NCBI  (4 juin 2012)[7] :
+Selon NCBI  (4 juin 2012) :
 sous-espèce Allium schoenoprasum subsp. latiorifolium
 sous-espèce Allium schoenoprasum subsp. schoenoprasum
 variété Allium schoenoprasum var. foliosum</t>
